--- a/output/1Y_P69_1VAL-D.xlsx
+++ b/output/1Y_P69_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>549.8312</v>
       </c>
-      <c r="G2" s="1">
-        <v>549.8312</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.150900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1874</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E3" s="1">
+        <v>549.8312</v>
+      </c>
       <c r="F3" s="1">
         <v>567.756</v>
       </c>
-      <c r="G3" s="1">
-        <v>1117.5872</v>
-      </c>
       <c r="H3" s="1">
-        <v>19582.1395</v>
+        <v>9634.0324</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8957</v>
+        <v>9634.0324</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1874</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19582.1395</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0183</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.806</v>
       </c>
+      <c r="E4" s="1">
+        <v>1117.5872</v>
+      </c>
       <c r="F4" s="1">
         <v>561.6084</v>
       </c>
-      <c r="G4" s="1">
-        <v>1679.1956</v>
-      </c>
       <c r="H4" s="1">
-        <v>29744.768</v>
+        <v>19796.6044</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8657</v>
+        <v>19796.6044</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8957</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29744.768</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0055</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E5" s="1">
+        <v>1679.1956</v>
+      </c>
       <c r="F5" s="1">
         <v>544.8878999999999</v>
       </c>
-      <c r="G5" s="1">
-        <v>2224.0835</v>
-      </c>
       <c r="H5" s="1">
-        <v>40605.5375</v>
+        <v>30657.4108</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.9849</v>
+        <v>30657.4108</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8657</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40605.5375</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0217</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E6" s="1">
+        <v>2224.0835</v>
+      </c>
       <c r="F6" s="1">
         <v>562.1989</v>
       </c>
-      <c r="G6" s="1">
-        <v>2786.2824</v>
-      </c>
       <c r="H6" s="1">
-        <v>49303.5454</v>
+        <v>39355.3801</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9451</v>
+        <v>39355.3801</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.9849</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49303.5454</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0257</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E7" s="1">
+        <v>2786.2824</v>
+      </c>
       <c r="F7" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G7" s="1">
-        <v>3337.9487</v>
-      </c>
       <c r="H7" s="1">
-        <v>60192.895</v>
+        <v>50244.7516</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9751</v>
+        <v>50244.7516</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9451</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60192.895</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E8" s="1">
+        <v>3337.9487</v>
+      </c>
       <c r="F8" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G8" s="1">
-        <v>3897.1796</v>
-      </c>
       <c r="H8" s="1">
-        <v>69326.9286</v>
+        <v>59378.7693</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9617</v>
+        <v>59378.7693</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9751</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69326.9286</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0123</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,38 +1076,38 @@
       <c r="D9" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E9" s="1">
+        <v>3897.1796</v>
+      </c>
       <c r="F9" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G9" s="1">
-        <v>4456.098</v>
-      </c>
       <c r="H9" s="1">
-        <v>79314.0886</v>
+        <v>69365.9004</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9529</v>
+        <v>69365.9004</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9617</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79314.0886</v>
       </c>
       <c r="Q9" s="3">
         <v>-0.0002</v>
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E10" s="1">
+        <v>4456.098</v>
+      </c>
       <c r="F10" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G10" s="1">
-        <v>5071.3274</v>
-      </c>
       <c r="H10" s="1">
-        <v>82002.3499</v>
+        <v>72054.21369999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7468</v>
+        <v>72054.21369999999</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.9529</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>2005.2441</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7994.7559</v>
+        <v>1753.7308</v>
       </c>
       <c r="O10" s="1">
-        <v>2005.2441</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>84007.594</v>
+        <v>-8246.269200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0594</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E11" s="1">
+        <v>5071.3274</v>
+      </c>
       <c r="F11" s="1">
-        <v>690.2934</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5761.6208</v>
+        <v>684.8687</v>
       </c>
       <c r="H11" s="1">
-        <v>88583.19070000001</v>
+        <v>77970.1375</v>
       </c>
       <c r="I11" s="1">
-        <v>100668.4147</v>
+        <v>1753.7308</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4722</v>
+        <v>79723.8683</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90584.5769</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.8621</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10668.4147</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1336.8294</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89920.02009999999</v>
+        <v>-10584.5769</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0435</v>
+        <v>-0.0284</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E12" s="1">
+        <v>5756.1961</v>
+      </c>
       <c r="F12" s="1">
-        <v>683.0714</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6444.6922</v>
+        <v>677.7035</v>
       </c>
       <c r="H12" s="1">
-        <v>100133.1161</v>
+        <v>89435.7454</v>
       </c>
       <c r="I12" s="1">
-        <v>111336.8294</v>
+        <v>1169.1539</v>
       </c>
       <c r="J12" s="1">
-        <v>17.2757</v>
+        <v>90604.8993</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101169.1539</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5757</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10668.4147</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>668.4147</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>100801.5308</v>
+        <v>-10584.5769</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.008800000000000001</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E13" s="1">
+        <v>6433.8996</v>
+      </c>
       <c r="F13" s="1">
-        <v>664.5911</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7109.2833</v>
+        <v>659.3684</v>
       </c>
       <c r="H13" s="1">
-        <v>113530.2774</v>
+        <v>102744.873</v>
       </c>
       <c r="I13" s="1">
-        <v>122005.2441</v>
+        <v>584.5769</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1614</v>
+        <v>103329.45</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111753.7308</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.3695</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10668.4147</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>113530.2774</v>
+        <v>-10584.5769</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0246</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E14" s="1">
+        <v>7093.268</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7109.2833</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6433.8996</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111183.4292</v>
       </c>
       <c r="I14" s="1">
-        <v>122005.2441</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1614</v>
+        <v>111183.4292</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111753.7308</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7549</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111434.4607</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111434.4607</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111434.4607</v>
+        <v>100848.1594</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0979</v>
+        <v>-0.0189</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.1874</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>549.8312</v>
       </c>
       <c r="G2" s="1">
-        <v>549.8312</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.150900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1874</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.6132</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>549.8312</v>
       </c>
       <c r="F3" s="1">
         <v>567.756</v>
       </c>
       <c r="G3" s="1">
-        <v>1117.5872</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19582.1395</v>
+        <v>9634.0324</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8957</v>
+        <v>9634.0324</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1874</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19582.1395</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0183</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.806</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1117.5872</v>
       </c>
       <c r="F4" s="1">
         <v>561.6084</v>
       </c>
       <c r="G4" s="1">
-        <v>1679.1956</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29744.768</v>
+        <v>19796.6044</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8657</v>
+        <v>19796.6044</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8957</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29744.768</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0055</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.3524</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1679.1956</v>
       </c>
       <c r="F5" s="1">
         <v>511.7208</v>
       </c>
       <c r="G5" s="1">
-        <v>2190.9165</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30657.4108</v>
       </c>
       <c r="I5" s="1">
-        <v>39391.305</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.9794</v>
+        <v>30657.4108</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29391.305</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.5032</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9391.305</v>
       </c>
-      <c r="O5" s="1">
-        <v>608.6950000000001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40608.695</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0217</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.7873</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2190.9165</v>
       </c>
       <c r="F6" s="1">
         <v>596.4195999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2787.3361</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49322.191</v>
+        <v>38768.4859</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>608.6950000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9383</v>
+        <v>39377.1809</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.2572</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10608.695</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49322.191</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0254</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.1269</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2787.3361</v>
       </c>
       <c r="F7" s="1">
         <v>539.9158</v>
       </c>
       <c r="G7" s="1">
-        <v>3327.2519</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>50263.7531</v>
       </c>
       <c r="I7" s="1">
-        <v>59786.999</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9689</v>
+        <v>50263.7531</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49786.999</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8619</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9786.999</v>
       </c>
-      <c r="O7" s="1">
-        <v>213.001</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60213.001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.8817</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3327.2519</v>
       </c>
       <c r="F8" s="1">
         <v>571.1426</v>
       </c>
       <c r="G8" s="1">
-        <v>3898.3945</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>69348.53939999999</v>
+        <v>59188.4833</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>213.001</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9561</v>
+        <v>59401.4843</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>18.0329</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10213.001</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69348.53939999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0123</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,40 +1827,40 @@
         <v>17.8917</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3898.3945</v>
       </c>
       <c r="F9" s="1">
         <v>558.9184</v>
       </c>
       <c r="G9" s="1">
-        <v>4457.3129</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>79335.7116</v>
+        <v>69387.5233</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.948</v>
+        <v>69387.5233</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9561</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79335.7116</v>
       </c>
       <c r="Q9" s="3">
         <v>-0.0002</v>
@@ -1889,43 +1880,43 @@
         <v>16.2541</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4457.3129</v>
       </c>
       <c r="F10" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5072.5422</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>82021.9936</v>
+        <v>72073.8575</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7426</v>
+        <v>72073.8575</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.948</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>2005.7908</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7994.2092</v>
+        <v>1754.2775</v>
       </c>
       <c r="O10" s="1">
-        <v>2005.7908</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>84027.7844</v>
+        <v>-8245.7225</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0594</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.4549</v>
       </c>
       <c r="E11" s="1">
+        <v>5072.5422</v>
+      </c>
+      <c r="F11" s="1">
+        <v>760.5535</v>
+      </c>
+      <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="F11" s="1">
-        <v>776.8275</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5849.3697</v>
-      </c>
       <c r="H11" s="1">
-        <v>89932.3045</v>
+        <v>77988.8153</v>
       </c>
       <c r="I11" s="1">
-        <v>102005.7908</v>
+        <v>1754.2775</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4388</v>
+        <v>79743.0928</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91754.2775</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0884</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12005.7908</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89932.3045</v>
+        <v>-11754.2775</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0436</v>
+        <v>-0.0284</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.6183</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5833.0957</v>
       </c>
       <c r="F12" s="1">
         <v>640.2745</v>
       </c>
       <c r="G12" s="1">
-        <v>6489.6443</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>100831.5498</v>
+        <v>90630.5578</v>
       </c>
       <c r="I12" s="1">
-        <v>112005.7908</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.2592</v>
+        <v>90630.5578</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101754.2775</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4443</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>100831.5498</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.0526</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6473.3702</v>
       </c>
       <c r="F13" s="1">
         <v>622.952</v>
       </c>
       <c r="G13" s="1">
-        <v>7112.5963</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>113583.1842</v>
+        <v>103375.1915</v>
       </c>
       <c r="I13" s="1">
-        <v>122005.7908</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1535</v>
+        <v>103375.1915</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111754.2775</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.2637</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113583.1842</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0248</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.7562</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7096.3223</v>
       </c>
       <c r="F14" s="1">
-        <v>-7112.5963</v>
+        <v>-7096.3223</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111231.3038</v>
       </c>
       <c r="I14" s="1">
-        <v>122005.7908</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1535</v>
+        <v>111231.3038</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111754.2775</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7482</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111486.3908</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111486.3908</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111486.3908</v>
+        <v>111231.3038</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0979</v>
+        <v>-0.0189</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.1874</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>549.8312</v>
       </c>
       <c r="G2" s="1">
-        <v>549.8312</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.150900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1874</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.6132</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>549.8312</v>
       </c>
       <c r="F3" s="1">
         <v>567.756</v>
       </c>
       <c r="G3" s="1">
-        <v>1117.5872</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19582.1395</v>
+        <v>9634.0324</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8957</v>
+        <v>9634.0324</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1874</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19582.1395</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0183</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.806</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1117.5872</v>
       </c>
       <c r="F4" s="1">
         <v>561.6084</v>
       </c>
       <c r="G4" s="1">
-        <v>1679.1956</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29744.768</v>
+        <v>19796.6044</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8657</v>
+        <v>19796.6044</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8957</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29744.768</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0055</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.3524</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1679.1956</v>
       </c>
       <c r="F5" s="1">
         <v>528.2075</v>
       </c>
       <c r="G5" s="1">
-        <v>2207.4032</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30657.4108</v>
       </c>
       <c r="I5" s="1">
-        <v>39693.8758</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.9822</v>
+        <v>30657.4108</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29693.8758</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.6834</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9693.8758</v>
       </c>
-      <c r="O5" s="1">
-        <v>306.1242</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40607.1255</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0217</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.7873</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2207.4032</v>
       </c>
       <c r="F6" s="1">
         <v>579.4091</v>
       </c>
       <c r="G6" s="1">
-        <v>2786.8123</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49312.9226</v>
+        <v>39060.2199</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>306.1242</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9416</v>
+        <v>39366.3441</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.1208</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10306.1242</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49312.9226</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0256</v>
+        <v>-0.0318</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.1269</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2786.8123</v>
       </c>
       <c r="F7" s="1">
         <v>551.6663</v>
       </c>
       <c r="G7" s="1">
-        <v>3338.4786</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60202.4512</v>
+        <v>50254.3078</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9723</v>
+        <v>50254.3078</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9416</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60202.4512</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.8817</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3338.4786</v>
       </c>
       <c r="F8" s="1">
         <v>559.2309</v>
       </c>
       <c r="G8" s="1">
-        <v>3897.7096</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>69336.35550000001</v>
+        <v>59388.1962</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9593</v>
+        <v>59388.1962</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9723</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69336.35550000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0123</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,40 +2595,40 @@
         <v>17.8917</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3897.7096</v>
       </c>
       <c r="F9" s="1">
         <v>558.9184</v>
       </c>
       <c r="G9" s="1">
-        <v>4456.628</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>79323.5209</v>
+        <v>69375.33259999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9508</v>
+        <v>69375.33259999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9593</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79323.5209</v>
       </c>
       <c r="Q9" s="3">
         <v>-0.0002</v>
@@ -2663,43 +2648,43 @@
         <v>16.2541</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4456.628</v>
       </c>
       <c r="F10" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5071.8573</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82010.9188</v>
+        <v>72062.78260000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.745</v>
+        <v>72062.78260000001</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.9508</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>2005.4826</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7994.5174</v>
+        <v>1753.9693</v>
       </c>
       <c r="O10" s="1">
-        <v>2005.4826</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>84016.4014</v>
+        <v>-8246.030699999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0594</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.4549</v>
       </c>
       <c r="E11" s="1">
+        <v>5071.8573</v>
+      </c>
+      <c r="F11" s="1">
+        <v>760.5335</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>776.8075</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5848.6649</v>
-      </c>
       <c r="H11" s="1">
-        <v>89921.4676</v>
+        <v>77978.285</v>
       </c>
       <c r="I11" s="1">
-        <v>102005.4826</v>
+        <v>1753.9693</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4408</v>
+        <v>79732.2543</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91753.9693</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0908</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12005.4826</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89921.4676</v>
+        <v>-11753.9693</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0436</v>
+        <v>-0.0284</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.6183</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5832.3908</v>
       </c>
       <c r="F12" s="1">
         <v>640.2745</v>
       </c>
       <c r="G12" s="1">
-        <v>6488.9394</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>100820.5983</v>
+        <v>90619.6063</v>
       </c>
       <c r="I12" s="1">
-        <v>112005.4826</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.261</v>
+        <v>90619.6063</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101753.9693</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4464</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>100820.5983</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.0526</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6472.6654</v>
       </c>
       <c r="F13" s="1">
         <v>622.952</v>
       </c>
       <c r="G13" s="1">
-        <v>7111.8915</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113571.9282</v>
+        <v>103363.9355</v>
       </c>
       <c r="I13" s="1">
-        <v>122005.4826</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1551</v>
+        <v>103363.9355</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111753.9693</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.2655</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113571.9282</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0248</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.7562</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7095.6174</v>
       </c>
       <c r="F14" s="1">
-        <v>-7111.8915</v>
+        <v>-7095.6174</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111220.2556</v>
       </c>
       <c r="I14" s="1">
-        <v>122005.4826</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1551</v>
+        <v>111220.2556</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111753.9693</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7497</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111475.3426</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111475.3426</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111475.3426</v>
+        <v>111220.2556</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0979</v>
+        <v>-0.0189</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.1874</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>549.8312</v>
       </c>
       <c r="G2" s="1">
-        <v>549.8312</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.150900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1874</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.6132</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>549.8312</v>
       </c>
       <c r="F3" s="1">
         <v>567.756</v>
       </c>
       <c r="G3" s="1">
-        <v>1117.5872</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19582.1395</v>
+        <v>9634.0324</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8957</v>
+        <v>9634.0324</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1874</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19582.1395</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0183</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.806</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1117.5872</v>
       </c>
       <c r="F4" s="1">
         <v>561.6084</v>
       </c>
       <c r="G4" s="1">
-        <v>1679.1956</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29744.768</v>
+        <v>19796.6044</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8657</v>
+        <v>19796.6044</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8957</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29744.768</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0055</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.3524</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1679.1956</v>
       </c>
       <c r="F5" s="1">
         <v>544.8042</v>
       </c>
       <c r="G5" s="1">
-        <v>2223.9998</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30657.4108</v>
       </c>
       <c r="I5" s="1">
-        <v>39998.4645</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.9849</v>
+        <v>30657.4108</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29998.4645</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8648</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9998.4645</v>
       </c>
-      <c r="O5" s="1">
-        <v>1.5355</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40605.5455</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0217</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.7873</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2223.9998</v>
       </c>
       <c r="F6" s="1">
         <v>562.2852</v>
       </c>
       <c r="G6" s="1">
-        <v>2786.285</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49303.5924</v>
+        <v>39353.8997</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>1.5355</v>
       </c>
       <c r="J6" s="1">
-        <v>17.945</v>
+        <v>39355.4351</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.9856</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10001.5355</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49303.5924</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0257</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.1269</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2786.285</v>
       </c>
       <c r="F7" s="1">
         <v>551.6663</v>
       </c>
       <c r="G7" s="1">
-        <v>3337.9514</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>60192.9429</v>
+        <v>50244.7995</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9751</v>
+        <v>50244.7995</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.945</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60192.9429</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.8817</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3337.9514</v>
       </c>
       <c r="F8" s="1">
         <v>559.2309</v>
       </c>
       <c r="G8" s="1">
-        <v>3897.1823</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>69326.9759</v>
+        <v>59378.8166</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9617</v>
+        <v>59378.8166</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9751</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69326.9759</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0123</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,40 +3363,40 @@
         <v>17.8917</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3897.1823</v>
       </c>
       <c r="F9" s="1">
         <v>558.9184</v>
       </c>
       <c r="G9" s="1">
-        <v>4456.1007</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>79314.13589999999</v>
+        <v>69365.9477</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9529</v>
+        <v>69365.9477</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9617</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79314.13589999999</v>
       </c>
       <c r="Q9" s="3">
         <v>-0.0002</v>
@@ -3437,43 +3416,43 @@
         <v>16.2541</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4456.1007</v>
       </c>
       <c r="F10" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5071.3301</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>82002.39290000001</v>
+        <v>72054.2567</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7468</v>
+        <v>72054.2567</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.9529</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>2005.2453</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7994.7547</v>
+        <v>1753.732</v>
       </c>
       <c r="O10" s="1">
-        <v>2005.2453</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>84007.6382</v>
+        <v>-8246.268</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0594</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.4549</v>
       </c>
       <c r="E11" s="1">
+        <v>5071.3301</v>
+      </c>
+      <c r="F11" s="1">
+        <v>760.5182</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>776.7922</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5848.1222</v>
-      </c>
       <c r="H11" s="1">
-        <v>89913.1249</v>
+        <v>77970.1784</v>
       </c>
       <c r="I11" s="1">
-        <v>102005.2453</v>
+        <v>1753.732</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4424</v>
+        <v>79723.91039999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91753.732</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0926</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12005.2453</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89913.1249</v>
+        <v>-11753.732</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0436</v>
+        <v>-0.0284</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.6183</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5831.8482</v>
       </c>
       <c r="F12" s="1">
         <v>640.2745</v>
       </c>
       <c r="G12" s="1">
-        <v>6488.3968</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>100812.1674</v>
+        <v>90611.1753</v>
       </c>
       <c r="I12" s="1">
-        <v>112005.2453</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.2624</v>
+        <v>90611.1753</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101753.732</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4479</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>100812.1674</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.0526</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6472.1228</v>
       </c>
       <c r="F13" s="1">
         <v>622.952</v>
       </c>
       <c r="G13" s="1">
-        <v>7111.3488</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>113563.2629</v>
+        <v>103355.2701</v>
       </c>
       <c r="I13" s="1">
-        <v>122005.2453</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1564</v>
+        <v>103355.2701</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111753.732</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.2669</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113563.2629</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0248</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.7562</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7095.0748</v>
       </c>
       <c r="F14" s="1">
-        <v>-7111.3488</v>
+        <v>-7095.0748</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111211.7502</v>
       </c>
       <c r="I14" s="1">
-        <v>122005.2453</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1564</v>
+        <v>111211.7502</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111753.732</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7509</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111466.8372</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111466.8372</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111466.8372</v>
+        <v>111211.7502</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0979</v>
+        <v>-0.0189</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.1874</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>549.8312</v>
       </c>
       <c r="G2" s="1">
-        <v>549.8312</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.150900000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.1874</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.150900000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.6132</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>549.8312</v>
       </c>
       <c r="F3" s="1">
         <v>567.756</v>
       </c>
       <c r="G3" s="1">
-        <v>1117.5872</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19582.1395</v>
+        <v>9634.0324</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8957</v>
+        <v>9634.0324</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>18.1874</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19582.1395</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0183</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.806</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1117.5872</v>
       </c>
       <c r="F4" s="1">
         <v>561.6084</v>
       </c>
       <c r="G4" s="1">
-        <v>1679.1956</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29744.768</v>
+        <v>19796.6044</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.8657</v>
+        <v>19796.6044</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8957</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29744.768</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0055</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.3524</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1679.1956</v>
       </c>
       <c r="F5" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2224.0835</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40605.5375</v>
+        <v>30657.4108</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.9849</v>
+        <v>30657.4108</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.8657</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40605.5375</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0217</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.7873</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2224.0835</v>
       </c>
       <c r="F6" s="1">
         <v>562.1989</v>
       </c>
       <c r="G6" s="1">
-        <v>2786.2824</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49303.5454</v>
+        <v>39355.3801</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9451</v>
+        <v>39355.3801</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.9849</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>49303.5454</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0257</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.1269</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2786.2824</v>
       </c>
       <c r="F7" s="1">
         <v>551.6663</v>
       </c>
       <c r="G7" s="1">
-        <v>3337.9487</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>60192.895</v>
+        <v>50244.7516</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.9751</v>
+        <v>50244.7516</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9451</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60192.895</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.8817</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3337.9487</v>
       </c>
       <c r="F8" s="1">
         <v>559.2309</v>
       </c>
       <c r="G8" s="1">
-        <v>3897.1796</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>69326.9286</v>
+        <v>59378.7693</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.9617</v>
+        <v>59378.7693</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.9751</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69326.9286</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0123</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,40 +4131,40 @@
         <v>17.8917</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3897.1796</v>
       </c>
       <c r="F9" s="1">
         <v>558.9184</v>
       </c>
       <c r="G9" s="1">
-        <v>4456.098</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>79314.0886</v>
+        <v>69365.9004</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.9529</v>
+        <v>69365.9004</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.9617</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>79314.0886</v>
       </c>
       <c r="Q9" s="3">
         <v>-0.0002</v>
@@ -4211,43 +4184,43 @@
         <v>16.2541</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4456.098</v>
       </c>
       <c r="F10" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5071.3274</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82002.3499</v>
+        <v>72054.21369999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.7468</v>
+        <v>72054.21369999999</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17.9529</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="L10" s="1">
-        <v>2005.2441</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7994.7559</v>
+        <v>1753.7308</v>
       </c>
       <c r="O10" s="1">
-        <v>2005.2441</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>84007.594</v>
+        <v>-8246.269200000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0594</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.4549</v>
       </c>
       <c r="E11" s="1">
+        <v>5071.3274</v>
+      </c>
+      <c r="F11" s="1">
+        <v>760.5181</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>776.7921</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5848.1195</v>
-      </c>
       <c r="H11" s="1">
-        <v>89913.08289999999</v>
+        <v>77970.1375</v>
       </c>
       <c r="I11" s="1">
-        <v>102005.2441</v>
+        <v>1753.7308</v>
       </c>
       <c r="J11" s="1">
-        <v>17.4424</v>
+        <v>79723.8683</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91753.7308</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0926</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12005.2441</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>89913.08289999999</v>
+        <v>-11753.7308</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0436</v>
+        <v>-0.0284</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.6183</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5831.8455</v>
       </c>
       <c r="F12" s="1">
         <v>640.2745</v>
       </c>
       <c r="G12" s="1">
-        <v>6488.394</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>100812.1249</v>
+        <v>90611.13280000001</v>
       </c>
       <c r="I12" s="1">
-        <v>112005.2441</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.2624</v>
+        <v>90611.13280000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101753.7308</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.4479</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>100812.1249</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.0526</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6472.12</v>
       </c>
       <c r="F13" s="1">
         <v>622.952</v>
       </c>
       <c r="G13" s="1">
-        <v>7111.3461</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113563.2192</v>
+        <v>103355.2265</v>
       </c>
       <c r="I13" s="1">
-        <v>122005.2441</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1564</v>
+        <v>103355.2265</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111753.7308</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.2669</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113563.2192</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0248</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.7562</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7095.0721</v>
       </c>
       <c r="F14" s="1">
-        <v>-7111.3461</v>
+        <v>-7095.0721</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111211.7073</v>
       </c>
       <c r="I14" s="1">
-        <v>122005.2441</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1564</v>
+        <v>111211.7073</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111753.7308</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7509</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111466.7944</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111466.7944</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111466.7944</v>
+        <v>111211.7073</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0979</v>
+        <v>-0.0189</v>
       </c>
     </row>
   </sheetData>
@@ -4480,7 +4453,7 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.7137</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.1614</v>
+        <v>15.7549</v>
       </c>
       <c r="D3" s="1">
-        <v>17.1535</v>
+        <v>15.7482</v>
       </c>
       <c r="E3" s="1">
-        <v>17.1551</v>
+        <v>15.7497</v>
       </c>
       <c r="F3" s="1">
-        <v>17.1564</v>
+        <v>15.7509</v>
       </c>
       <c r="G3" s="1">
-        <v>17.1564</v>
+        <v>15.7509</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.1354</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1818</v>
+        <v>-0.1306</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.181</v>
+        <v>-0.1297</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1813</v>
+        <v>-0.13</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1815</v>
+        <v>-0.1303</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1815</v>
+        <v>-0.1303</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1185</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1217</v>
+        <v>0.1134</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1218</v>
+        <v>0.1134</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1218</v>
+        <v>0.1134</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1218</v>
+        <v>0.1135</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1218</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.3138</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.6606</v>
+        <v>-1.3304</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.6529</v>
+        <v>-1.3237</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.6549</v>
+        <v>-1.3256</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.6565</v>
+        <v>-1.327</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.6565</v>
+        <v>-1.327</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1297</v>
+        <v>-0.2818</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1287</v>
+        <v>-0.1325</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1288</v>
+        <v>-0.1326</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1289</v>
+        <v>-0.1326</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1289</v>
+        <v>-0.1326</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2005.2441</v>
+        <v>1753.7308</v>
       </c>
       <c r="D8" s="1">
-        <v>2005.7908</v>
+        <v>1754.2775</v>
       </c>
       <c r="E8" s="1">
-        <v>2005.4826</v>
+        <v>1753.9693</v>
       </c>
       <c r="F8" s="1">
-        <v>2005.2453</v>
+        <v>1753.732</v>
       </c>
       <c r="G8" s="1">
-        <v>2005.2441</v>
+        <v>1753.7308</v>
       </c>
     </row>
   </sheetData>
